--- a/feebacks-timesheets/Sprint3_Timesheet.xlsx
+++ b/feebacks-timesheets/Sprint3_Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amede\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarpa\Desktop\thesis\feebacks-timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10C201A-3BB3-4AA7-825D-1CA92FD18F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF7A63-8BB4-44D0-8844-B9B5B2B15706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>SPRINT 3 - TIMESHEET</t>
   </si>
@@ -97,37 +96,64 @@
     <t>ESTIMATION</t>
   </si>
   <si>
-    <t>BAD ESTIMATED</t>
-  </si>
-  <si>
     <t>REASONS</t>
   </si>
   <si>
-    <t>yes; underestimated</t>
-  </si>
-  <si>
     <t>Since we wanted to introduce Gregory in the cloud development, explain to him how to create an helm chart took more time than expected</t>
   </si>
   <si>
     <t>Since we decided to use MUI, in some cases just a base knowledge was enough in other a deeper knowledge  (that we did not had) was needed.</t>
   </si>
   <si>
-    <t>yes, underestimated</t>
-  </si>
-  <si>
     <t>We did not had clear idea on the implementation and on the data model, so we changed a lot of times our implementation.</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>yes,overestimated</t>
-  </si>
-  <si>
-    <t>Reasons why a user story was under/over stimated (if was)</t>
-  </si>
-  <si>
     <t>During the planning the goal of this story was not clear, so probably, with the fear of underestimating, we put 5. At the end was just the implementation of a function to decide the visibility of button in the sidebar, basing on the user role.</t>
+  </si>
+  <si>
+    <t>Possible indicators</t>
+  </si>
+  <si>
+    <t>short name</t>
+  </si>
+  <si>
+    <t>user story is a spike</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>user story requires new technology</t>
+  </si>
+  <si>
+    <t>new_tech</t>
+  </si>
+  <si>
+    <t>user story begins a new set of functionalities</t>
+  </si>
+  <si>
+    <t>new_func</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>BAD ESTIMATED(yes/no;under/over;indicator)</t>
+  </si>
+  <si>
+    <t>yes; underestimated;spike</t>
+  </si>
+  <si>
+    <t>yes; underestimated;spike,new_tech</t>
+  </si>
+  <si>
+    <t>yes,overestimated;other</t>
+  </si>
+  <si>
+    <t>yes, underestimated;new_func</t>
   </si>
 </sst>
 </file>
@@ -139,6 +165,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,23 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -203,7 +229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,38 +298,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -530,69 +555,71 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="3" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -629,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -668,7 +695,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -705,7 +732,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -745,7 +772,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -784,7 +811,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -823,7 +850,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -840,7 +867,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -889,152 +916,162 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="N12" s="6"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="13" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1047,40 +1084,40 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -1092,15 +1129,15 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="11">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1113,15 +1150,15 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="11">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
+      <c r="C26" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1134,15 +1171,15 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -1155,61 +1192,96 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="11">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="B32" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="4:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="4:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="4:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="4:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="B33" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A13:K15"/>
+    <mergeCell ref="A16:M20"/>
+    <mergeCell ref="D21:M21"/>
     <mergeCell ref="D25:M25"/>
     <mergeCell ref="D26:M26"/>
     <mergeCell ref="D27:M27"/>
     <mergeCell ref="D36:M36"/>
     <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A13:K15"/>
-    <mergeCell ref="A16:K18"/>
-    <mergeCell ref="A19:K20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:G2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
